--- a/x_labelled_test.xlsx
+++ b/x_labelled_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
   <si>
     <t>sentence</t>
   </si>
@@ -23,82 +23,1181 @@
     <t>sentence_id</t>
   </si>
   <si>
-    <t>Y conforme a lo establecido en el artículo 64 del Reglamento que nos rige la Junta de Coordinación debió entregar a la
-Presidencia de la Mesa Directiva una solicitud para incluir el punto a tratar.</t>
-  </si>
-  <si>
-    <t>Primero, no necesito que nadie me defienda, me defiende mi trabajo, me defiende mi trayectoria y las obras que hemos realizado y quiero poner el ejemplo de los sismos.</t>
-  </si>
-  <si>
-    <t>Reitero mi atenta solicitud para que, vista la cordialidad que existe entre ustedes, se pueda desahogar cualquier malentendido producto de una comparecencia particularmente intensa de este día.</t>
-  </si>
-  <si>
-    <t>(desde la curul): ...se incluyen de manera extra reglamentaria.</t>
-  </si>
-  <si>
-    <t>Tiene el uso de la palabra el diputado Luis Enrique Martínez Ventura.</t>
-  </si>
-  <si>
-    <t>Yo creo que lo más sencillo, en su condición de legisladores, representantes de distritos, muchos de ustedes de los estados, precisamente, que fueron afectados, es que hagamos una gira conjunta a todos estos lugares.</t>
-  </si>
-  <si>
-    <t>Secretaría, haga del conocimiento de esta Presidencia el resultado del cómputo de asistencia.</t>
-  </si>
-  <si>
-    <t>Que, si sigue en ese tono de cinismo y de burla a esta soberanía la secretaria, sea cancelada la comparecencia, porque es intolerable estarle escuchando ese nivel de desvergüenza.</t>
-  </si>
-  <si>
-    <t>(desde la curul): Mencionar que los logros que ella menciona, sobre todo en el distrito 11 de Ecatepec, sobre el teleférico a que ella hizo alusión...</t>
-  </si>
-  <si>
-    <t>El paisaje de las colonias incide directamente en la calidad de vida de las y los ciudadanos.</t>
-  </si>
-  <si>
-    <t>A ver, vamos a ver, dejemos este punto de alusiones personales atrás, y centrémonos en los numerosos compañeros y compañeras que desean hacer uso de la palabra, para hechos.</t>
-  </si>
-  <si>
-    <t>A ver, permítame un momento, en ningún momento ha habido alusión a su persona.</t>
-  </si>
-  <si>
-    <t>El pasado 6 de junio, el presidente Enrique Peña Nieto, en un acto unilateral firmó 10 decretos por el que se eliminan las vedas de 300 cuencas hidrológicas que equivalen al 55 por ciento de lagos y ríos del país.</t>
-  </si>
-  <si>
-    <t>La de las grandes acciones al lucro electoral al estilo Rosario Robles y Morena.</t>
-  </si>
-  <si>
-    <t>(19:16 horas): Se levanta la sesión y se cita para la que tendrá lugar el jueves 18 de octubre de 2018 a las 11 horas.</t>
-  </si>
-  <si>
-    <t>Para Encuentro Social estos ejercicios son necesarios e importantes, y reconocemos su disposición a participar en ello.</t>
-  </si>
-  <si>
-    <t>Hoy, sí acaso algunos están gritando y le aplaudirán, los que no ganaron la elección, los que son del viejo régimen priista y no saben más que hacer eso.</t>
-  </si>
-  <si>
-    <t>Están levantando la mano la diputada Claudia Domínguez, Hildelisa González y Maribel Martínez.</t>
-  </si>
-  <si>
-    <t>Diputado Gerardo Fernández Noroña, el diputado del PRI le hizo una pregunta al respecto del aeropuerto y está dando respuesta.</t>
-  </si>
-  <si>
-    <t>Tiene el uso de la palabra, el diputado Pedro Pablo Treviño Villarreal, del Grupo Parlamentario del PRI.</t>
-  </si>
-  <si>
-    <t>Los más de 7 mil millones, Rosario, le fueron entregados a 186 empresas,
-pero 128 de estas empresas no estaban calificadas para recibir recursos públicos.</t>
-  </si>
-  <si>
-    <t>Tiene la palabra la diputada Lizeth Sánchez García, del Grupo Parlamentario del Partido del Trabajo, hasta por cinco minutos, para formular comentarios y preguntas.</t>
-  </si>
-  <si>
-    <t>Frente a la tragedia el gobierno federal determinó que la Sedatu sería la dependencia responsable de las acciones para la
-reconstrucción de viviendas.</t>
-  </si>
-  <si>
-    <t>Ese es el llamado respetuoso que hacemos, a que vertamos nuestras opiniones, seamos tolerantes con la divergencia de ellas...</t>
-  </si>
-  <si>
-    <t>Quiero iniciar esta participación a nombre del Grupo Parlamentario del PRD, con la descripción gráfica que también usted hizo hace unos momentos y quiero decirle, señora secretaria, que aquí está el ejemplo de los desvíos de recursos de la cual usted fue causante.</t>
+    <t>Las diputadas y los diputados que estén por la negativa sírvanse manifestarlo (votación), gracias.</t>
+  </si>
+  <si>
+    <t>Se remite a las Comisiones de Educación Pública y Servicios Educativos, y de Presupuesto y Cuenta Pública, para conocimiento.</t>
+  </si>
+  <si>
+    <t>... En función de lo anterior, señor secretario, podría informarnos, ¿qué pasó con la Cruzada Nacional contra el Hambre?</t>
+  </si>
+  <si>
+    <t>La diputada Mariana Rodríguez Mier y Terán, del PRI, en el uso de la palabra hasta por tres minutos para formular su pregunta o comentario.</t>
+  </si>
+  <si>
+    <t>Paras sumarnos a la felicitación que ya han expresado los coordinadores parlamentarios, incluida la fracción independiente.</t>
+  </si>
+  <si>
+    <t>Diputadas y diputados, a continuación vamos a pasar a la votación de los artículos reservados.</t>
+  </si>
+  <si>
+    <t>Compañeras diputadas, compañeros diputados, el acceso a internet ha adquirido el estatus de derecho humano fundamental al ser reconocido como tal por el Consejo de los Derechos Humanos de la Organización de las Naciones Unidas, ya que se considera que es un medio por el cual las personas ejercen sus derechos a la libertad de opinión y de expresión, así como el de la información que están establecidos en el
+artículo 19 de la Declaración Universal de los Derechos Humanos y en el Pacto Internacional de Derechos Civiles y Políticos.</t>
+  </si>
+  <si>
+    <t>Firman el acuerdo los integrantes de la Conferencia para la Dirección y Programación de los Trabajos Legislativos.</t>
+  </si>
+  <si>
+    <t>Consulte la Secretaría, en votación económica, si se acepta la modificación a los artículos reservados.</t>
+  </si>
+  <si>
+    <t>De conformidad con lo que establece el artículo 87 del Reglamento de la Cámara de Diputados, se cumple la Declaratoria de Publicidad.</t>
+  </si>
+  <si>
+    <t>La segunda opción que se da con esta reforma es que bajen la potencia de sus transmisiones a los parámetros previstos en la ley, para ser consideradas estaciones de baja potencia, y que por ende, se ubiquen en el supuesto contemplado actualmente en la ley.</t>
+  </si>
+  <si>
+    <t>Seguramente todos estamos de acuerdo, para poderle dar atención a su punto, necesitamos tenerlo por escrito.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros legisladores, me presento frente a esta honorable soberanía para proponer una iniciativa histórica, en favor de la igualdad de derechos entre hombres y mujeres.</t>
+  </si>
+  <si>
+    <t>Han sido un ejemplo de tesón y de combate al narcotráfico y a la corrupción durante muchos años.</t>
+  </si>
+  <si>
+    <t>Martha Sofía Tamayo Morales: A continuación, se cede el uso de la voz, hasta por diez minutos, al diputado José Carlos Camacho Díaz, del Grupo Parlamentario del Partido de la Revolución Democrática, para presentar iniciativa con proyecto de decreto que expide la Ley para la Regulación de la Fractura Hidráulica.</t>
+  </si>
+  <si>
+    <t>Se remite a las Comisiones de Presupuesto y Cuenta Pública, de Hacienda y Crédito Público de la Cámara de Diputados y a la de Hacienda y Crédito Público de la Cámara de Senadores.</t>
+  </si>
+  <si>
+    <t>Las diputadas y los diputados que estén por la afirmativa sírvanse manifestarlo (votación), gracias.</t>
+  </si>
+  <si>
+    <t>Por lo tanto, pido a la Secretaría abra el sistema electrónico, por cinco minutos, para proceder a la votación en lo general y en lo particular de los artículos no reservados.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra por cinco minutos la diputada Norma Xóchitl Hernández Colín, del Grupo Parlamentario de Morena, para presentar tres iniciativas en una sola intervención.</t>
+  </si>
+  <si>
+    <t>Nosotros creemos que no existe un ejercicio más democrático, que el que involucra a los Poderes de la Unión, al Ejecutivo, al Congreso, a la Corte y al pueblo de México para tomar una decisión sobre su futuro.</t>
+  </si>
+  <si>
+    <t>La Secretaría de Hacienda y Crédito Público remite los siguientes asuntos.</t>
+  </si>
+  <si>
+    <t>Es un elemento fundamental de toda política social, 15 millones de niñas y niños adolescentes son apoyados hoy por la Sedesol.</t>
+  </si>
+  <si>
+    <t>Rafael Hernández Soriano: Con todo gusto, pero ya que aceptó el senador, adelante.</t>
+  </si>
+  <si>
+    <t>Martha Sofía Tamayo Morales: Ciudadano César Alberto Serna de León, ¿protesta guardar y hacer guardar la Constitución Política de los Estados Unidos Mexicanos y las leyes que de ella emanen y desempeñar leal y patrióticamente el cargo de diputado que el pueblo le ha conferido, mirando en todo por el bien y prosperidad de la unión?</t>
+  </si>
+  <si>
+    <t>Tiene ahora la palabra el diputado Norberto Antonio Martínez Soto, del Grupo Parlamentario del PRD.</t>
+  </si>
+  <si>
+    <t>El eco de la valentía trasciende las barreras del tiempo, porque su ejemplo inspira a través de los siglos y sus frutos de libertad siguen floreciendo a lo largo de las generaciones, renovando el espíritu de cada persona, el compromiso de hacer vida a los valores de aquellos valientes y construir con dignidad a partir del legado que confiaron en nosotros.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra el diputado José Luis García Duque, del Grupo Parlamentario del Partido Encuentro Social, hasta por tres minutos.</t>
+  </si>
+  <si>
+    <t>Por instrucciones de la Presidencia, en votación económica se consulta a la asamblea si se encuentra suficientemente discutido.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra la diputada Maribel Martínez Ruiz, del Grupo Parlamentario del Partido del Trabajo.</t>
+  </si>
+  <si>
+    <t>El siguiente punto del orden del día es el de la iniciativa con proyecto de decreto para que se inscriba con letras de oro en el Muro de Honor de la Cámara de Diputados del Congreso de la Unión, la frase al Movimiento Estudiantil de 1968.</t>
+  </si>
+  <si>
+    <t>Hace apenas un par de días nos reunimos los coordinadores parlamentarios con motivo de los incidentes en la discusión de la Ley de Ingresos e hicimos un firme compromiso de transmitir a los grupos parlamentarios que deberíamos conducirnos con respeto, que deberíamos escucharnos y actuar con civilidad en este pleno.</t>
+  </si>
+  <si>
+    <t>No habiendo quien haga uso de la palabra, en votación económica, se pregunta si se aprueba.</t>
+  </si>
+  <si>
+    <t>Honorable asamblea, el fin de las emisiones analógicas de los operadores de televisión al que todos conocemos como apagón analógico para dar cabida a la transmisión exclusiva de las señales digitales a través de lo que se denomina televisión digital terrestre, es una tendencia de telecomunicaciones a nivel mundial, a la que México se inscribió, en el entendido que se trataría de un proceso a efectuarse de manera escalonada y por
+ciudades.</t>
+  </si>
+  <si>
+    <t>Ay, caray, me sentí como en un cuento de hadas, pero aquí venimos a hablar de realidades.</t>
+  </si>
+  <si>
+    <t>Aprobados los artículos reservados en términos del dictamen modificado, por 352 votos.</t>
+  </si>
+  <si>
+    <t>De igual manera, y a nombre de mis compañeros de la fracción priista de Guanajuato, pedirle a la diputada Rocha nos permita adherirnos a su iniciativa.</t>
+  </si>
+  <si>
+    <t>En votación económica se consulta a la asamblea si son de aprobarse los puntos de acuerdo no separados para su discusión.</t>
+  </si>
+  <si>
+    <t>...que no requieran de requisitos y documentos que les generen datos innecesarios.</t>
+  </si>
+  <si>
+    <t>De conformidad con el artículo 76, fracción IV, del Reglamento de la Cámara de Diputados, tiene la palabra hasta por cinco minutos el diputado Jesús Zambrano Grijalva, del Grupo Parlamentario del Partido de la Revolución Democrática, para presentar proposición con punto de acuerdo por el que esta soberanía expresa su solidaridad a los comunicadores Leonardo Antonio Curzio Gutiérrez, Ricardo Raphael de la
+Madrid y María Amparo Casar Pérez, y condena cualquier acto que pudiera considerarse como censura, suscrito también por el diputado Francisco Martínez Neri.</t>
+  </si>
+  <si>
+    <t>Esperemos iniciar lo más puntualmente posible porque tenemos una agenda también densa el día de mañana, y se les informa que el sistema electrónico estará abierto a partir de las 9:30 horas.</t>
+  </si>
+  <si>
+    <t>Diputadas, diputados, ciudadanos que nos observan por el Canal 22, en esta ocasión presento dos iniciativas relacionadas con la defensa del presupuesto destinado a dos rubros fundamentales para la estabilidad, el desarrollo y el crecimiento del país: la educación, la ciencia y la tecnología.</t>
+  </si>
+  <si>
+    <t>Para los efectos del artículo 100, numeral 2 del Reglamento de la Cámara de Diputados, consulte la Secretaría a la asamblea en votación económica si se considera de urgente resolución con la modificación propuesta.</t>
+  </si>
+  <si>
+    <t>No, pero no puede convertirse la... Perdón, no está previsto en el Reglamento, hay un orden del día de la sesión, con el pretexto de la votación del acta no puede iniciarse un debate político, no puede, porque no está en el Reglamento, si no a esto le llamaban en el pasado, en el pasado no ahora, no sería capaz de repetirlo, la hora del aficionado.</t>
+  </si>
+  <si>
+    <t>Tiene ahora la palabra por cinco minutos el diputado Luis Alfredo Valles Mendoza, del Grupo Parlamentario de Nueva Alianza, para presentar iniciativa con proyecto  de decreto que reforma los artículos 26, 27 y 29 de la Ley General del Servicio Profesional docente.</t>
+  </si>
+  <si>
+    <t>Se desecha y se reserva para su votación nominal en conjunto, en términos del dictamen.</t>
+  </si>
+  <si>
+    <t>El Ejecutivo federal con gran sensibilidad modificó las reglas de operación del Fondo Nacional de Desastres Naturales para que la federación aportara el 75 por ciento del total de recursos destinados para la reconstrucción.</t>
+  </si>
+  <si>
+    <t>La diputada Carolina García Aguilar, del Partido Encuentro Social, tiene la palabra hasta por cinco minutos.</t>
+  </si>
+  <si>
+    <t>Se va a votar si se aprueba o no se aprueba que sean de urgente resolución.</t>
+  </si>
+  <si>
+    <t>A ver, disculpe nuevamente, estamos en votación, sin embargo, la diputada Riojas ha solicitado el micrófono.</t>
+  </si>
+  <si>
+    <t>Señor presidente, se emitieron 314 votos a favor y 104 en contra.</t>
+  </si>
+  <si>
+    <t>Nuevas normas que rigen la conducta de los gobernantes y de quienes tienen bajo su responsabilidad los recursos públicos.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, el diputado Mario Delgado Carrillo, del Grupo Parlamentario de Morena, hasta por tres minutos.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, hasta por cinco minutos, el diputado Marco Antonio Gómez Alcantar, para presentar iniciativa con proyecto de decreto que adiciona diversas disposiciones de la Constitución Política de los Estados Unidos Mexicanos y de la Ley General de Instituciones y Procedimientos Electorales, suscrita por diputados integrantes del Partido Verde Ecologista de México.</t>
+  </si>
+  <si>
+    <t>Consulte la Secretaría a la asamblea en votación económica si se admiten a discusión.</t>
+  </si>
+  <si>
+    <t>Creo que lo que estamos viendo y lo que vamos a seguir viendo con mayor claridad los próximos días y semanas y quizá meses, es que la decisión de construir un aeropuerto fabuloso, cinco cuadras adelante del actual aeropuerto, que tiene un inmenso valor solo como aeropuerto, la decisión de abandonar ese aeropuerto para construir uno fabuloso cinco cuadras adelante, fue una de las peores decisiones que hayan tomado
+los gobiernos mexicanos en materia de obra pública.</t>
+  </si>
+  <si>
+    <t>Diputados ciudadanos, el fuero político protege ideales, no delitos del orden común.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra hasta por cinco minutos el diputado Ulises García Soto, del Grupo Parlamentario de Morena, para presentar proposición con punto de acuerdo por el que la Cámara de Diputados se pronuncia en contra de cualquier acto de endurecimiento de la política migratoria.</t>
+  </si>
+  <si>
+    <t>Para dar respuesta, tiene la palabra el ciudadano Eviel Pérez Magaña, hasta por tres minutos.</t>
+  </si>
+  <si>
+    <t>No, es una minuta que viene de la revolución de las urnas del verano pasado.</t>
+  </si>
+  <si>
+    <t>Se pide se hagan los avisos a que se refiere el artículo 161 del Reglamento interior.</t>
+  </si>
+  <si>
+    <t>Hoy en la mañana un ciclista que circulaba por la ciclovía de Revolución se encontró con un automovilista que estaba invadiendo la ciclovía...</t>
+  </si>
+  <si>
+    <t>Las legisladoras y los legisladores que estén por la afirmativa sírvanse manifestarlo levantando su mano (votación).</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros diputados, la verdad es que todos sabemos que será muy cuesta arriba volver a encender el motor de la política social en México.</t>
+  </si>
+  <si>
+    <t>¿Cuáles son las razones de que persistan decenas de millones de personas con carencia de acceso a la alimentación?</t>
+  </si>
+  <si>
+    <t>Igualmente, los diputados de la bancada del Partido del Trabajo nos sumamos a la felicitación para nuestro compañero Zoé Robledo, porque sabemos que si bien deja esta Cámara de los Diputados, estará asumiendo en breve una posición de relevancia de enorme importancia para el próximo gobierno de la cuarta transformación que encabezará el licenciado López Obrador.</t>
+  </si>
+  <si>
+    <t>Acudo ante esta Cámara a hablar sobre la exoneración indebida de Alejandro Gutiérrez Gutiérrez, alias La Coneja, pues desde el primer día de su detención las amenazas y presiones a nuestro estado fueron de lo político a lo económico.</t>
+  </si>
+  <si>
+    <t>La buena noticia es que los ciudadanos de la Ciudad de México por fin tendrán su propia constitución.</t>
+  </si>
+  <si>
+    <t>Las diputadas y los diputados que estén por la afirmativa sírvanse manifestarlo (votación) Gracias.</t>
+  </si>
+  <si>
+    <t>Ahora corresponde el turno al diputado Juan Carlos Villarreal Salazar, del Grupo Parlamentario de Movimiento Ciudadano.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros diputados y diputadas, al pueblo de México, a todos los pescadores del país, a todas las comunidades pesqueras, justicia, primero los pobres.</t>
+  </si>
+  <si>
+    <t>Tonterías son de aquellos que dicen que defienden al pueblo y venden sus recursos naturales.</t>
+  </si>
+  <si>
+    <t>He tenido la oportunidad de conocerlo durante muchos años y como funcionario público, como director de la Comisión Federal de Electricidad tuve la oportunidad de trabajar a favor de Chiapas, cuando él era Senador de la República.</t>
+  </si>
+  <si>
+    <t>Las diputadas y diputados que estén por la negativa favor de manifestarlo en votación económica (votación).</t>
+  </si>
+  <si>
+    <t>Y lo preciso porque fue incluso en el distrito al que yo represento, en la ciudad de Monterrey, lo preciso porque tiene que ver precisamente con que estamos acostumbrados a normalizar la
+violencia.</t>
+  </si>
+  <si>
+    <t>Muchas gracias, diputado José Clemente Castañeda Hoeflich.</t>
+  </si>
+  <si>
+    <t>En consecuencia en el uso de la voz, el diputado Marco Antonio Andrade Zavala.</t>
+  </si>
+  <si>
+    <t>Las diputadas y los diputados que estén por la afirmativa sírvanse manifestarlo (votación) Las diputadas y los diputados que estén por la negativa sírvanse manifestarlo (votación).</t>
+  </si>
+  <si>
+    <t>Las diputadas y los diputados que estén por la negativa, sírvanse manifestarlo (votación) Señor presidente, mayoría por la afirmativa.</t>
+  </si>
+  <si>
+    <t>Sin embargo, sin polemizar, porque además comparto lo que planteó mi compañero, el diputado Sergio Mayer.</t>
+  </si>
+  <si>
+    <t>Anuncio a la asamblea que con el diputado alcanzamos ya los 500 integrantes de esta Cámara de Diputados.</t>
+  </si>
+  <si>
+    <t>Es quizás demasiado pedir, que los trabajos de esta soberanía se llevaran a cabo como están dándose en este punto de acuerdo.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros diputados, la Constitución es el acuerdo básico que los ciudadanos se dan para organizarse, para procesar sus diferencias, para organizar el poder público y para perseguir sus anhelos.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra hasta por cinco minutos el diputado Renato Josafat Molina Arias, para presentar iniciativa con proyecto de decreto que reforma el artículo 25, y adiciona un artículo 25 Bis a la Ley General de Acceso a las Mujeres a una Vida Libre de Violencia; suscrita también por la diputada Rocío Nahle, del Grupo Parlamentario de Morena.</t>
+  </si>
+  <si>
+    <t>Consulte la Secretaría a la asamblea, en votación económica, si se admiten a discusión.</t>
+  </si>
+  <si>
+    <t>En el uso de la palabra, la diputada Idalia Reyes Miguel, de Morena.</t>
+  </si>
+  <si>
+    <t>Para el efecto le pregunto al diputado Everardo López, quien representó al grupo proponente, si estaría de acuerdo en la modificación.</t>
+  </si>
+  <si>
+    <t>Consulte la Secretaría a la asamblea si se dispensa la lectura del orden del día, en virtud de que se encuentra publicado en la Gaceta Parlamentaria.</t>
+  </si>
+  <si>
+    <t>Para pedirle a la diputada que me haga favor de adherirme a su iniciativa, de Cuernavaca, Morelos, zona anteriormente apícola.</t>
+  </si>
+  <si>
+    <t>Esta Presidencia da por concluida la comparecencia del secretario de Desarrollo Social ante esta soberanía, en cumplimiento con los artículos 69 y 93 de la Constitución Política de los Estados Unidos Mexicanos.</t>
+  </si>
+  <si>
+    <t>... los alcances del tercero transitorio y evitar que la unidad de medida de actualización se siga utilizando para determinar el monto de las pensiones.</t>
+  </si>
+  <si>
+    <t>Y muy a mi pesar porque la Ciudad de México ha tenido un proceso social que merece tener una verdadera reforma política.</t>
+  </si>
+  <si>
+    <t>El Instituto Mexicano del Seguro Social remite el informe sobre la composición y situación financiera de las inversiones del Instituto correspondiente al tercer trimestre del año 2017.</t>
+  </si>
+  <si>
+    <t>Tiene el uso de la palabra el diputado Luis Ignacio Avendaño Bermúdez, hasta por cinco minutos.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros legisladores, para transformar el México que tenemos en el México que nos merecemos, las y las legisladores somos pieza fundamental.</t>
+  </si>
+  <si>
+    <t>En el uso de la palabra el diputado Carlos Sánchez Barrios, de Morena.</t>
+  </si>
+  <si>
+    <t>Por el que se exhorta a la Secretaría de Gobernación, al Sistema de Administración Tributaria y a la Secretaría de Relaciones Exteriores, a fortalecer y dar mayor difusión a los programas de atención a migrantes.</t>
+  </si>
+  <si>
+    <t>Por instrucciones de la Presidencia se consulta a la asamblea, en votación económica, si se dispensa la lectura al acta de la sesión anterior.</t>
+  </si>
+  <si>
+    <t>Para los efectos del artículo 100 del Reglamento de la Cámara de Diputados, se pregunta a la asamblea si se considera de urgente resolución.</t>
+  </si>
+  <si>
+    <t>Se recibieron oficios de los diputados Elvia Graciela Palomares Ramírez y David Sánchez Isidoro, por los que informan la reincorporación a sus actividades legislativas a partir del 12 y 16 de marzo del año en curso respectivamente.</t>
+  </si>
+  <si>
+    <t>Solo quisiera que se asentara desde este momento, y que con esa generosidad del tiempo que se le ha dado al diputado Pablo, pues también a partir de hoy se asiente que para todos los grupos parlamentarios vamos a tener el mismo tiempo para la exposición de nuestros temas, diputada presidenta.</t>
+  </si>
+  <si>
+    <t>Diputado, presidente, sé que no está en el orden del día, quiero hacerle una solicitud a la Mesa Directiva.</t>
+  </si>
+  <si>
+    <t>No habiendo quien haga uso de la palabra, en votación económica se pregunta si se aprueba.</t>
+  </si>
+  <si>
+    <t>Tiene el uso de la tribuna el diputado Mario Ariel Juárez Rodríguez, del Grupo Parlamentario de Morena.</t>
+  </si>
+  <si>
+    <t>Pido a la Secretaría abra el sistema electrónico de votación, por tres minutos.</t>
+  </si>
+  <si>
+    <t>El siguiente punto del orden del día es la discusión del dictamen de la Comisión de Marina, con proyecto de decreto que reforma, adiciona y deroga diversas disposiciones de la Ley de Vertimientos en las Zonas Marinas Mexicanas.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra diputado, por favor, el diputado Saldivar, para continuar en su uso de la palabra.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra el diputado Jorge Álvarez Maynez, del Grupo Parlamentario de Movimiento Ciudadano, en pro.</t>
+  </si>
+  <si>
+    <t>Los integrantes de esta Comisión de Vigilancia de la Auditoría Superior de la Federación, de la LXIII Legislatura, con fundamento en los artículos 79, párrafo sexto de la Constitución Política de los Estados Unidos Mexicanos, así como 84, fracción IV de la Ley de Fiscalización y Rendición de Cuentas de la Federación, y de conformidad con lo establecido en la base octava de la convocatoria por consenso, proponen al pleno
+de esta Cámara de Diputados del honorable Congreso de la Unión a los siguientes ciudadanos para el efecto de que se proceda a destinar al titular de la Auditoría Superior de la Federación para el periodo 2018-2025: Salim Arturo Orci Magaña, David Rogelio Colmenares Páramo, Ángel José Trinidad Saldívar.</t>
+  </si>
+  <si>
+    <t>Si no se ha formado ninguna Junta de Coordinación Política, señor presidente.</t>
+  </si>
+  <si>
+    <t>Por ello, es importante que la Cuarta Transformación del país inicie con el programa Jóvenes Construyendo el Futuro o los apoyos reales a los emprendedores y pequeñas empresas, y que estos lleguen a quien más lo necesitan.</t>
+  </si>
+  <si>
+    <t>Como oposición hemos dicho y hecho lo que pensamos y no nos hemos retractado cuando los ciudadanos nos han dado la confianza de representarlos</t>
+  </si>
+  <si>
+    <t>En votación económica se consulta a la asamblea si se admite a discusión.</t>
+  </si>
+  <si>
+    <t>Las recientes catástrofes que ocurrieron afectaron a varias entidades del país.</t>
+  </si>
+  <si>
+    <t>Tiene el uso de la palabra hasta por cinco minutos, el diputado Antonio Ortega Martínez, del Grupo Parlamentario del Partido de la Revolución Democrática.</t>
+  </si>
+  <si>
+    <t>... que dicen que el dinero de los mexicanos se siga repartiendo en los bolsillos de los funcionarios.</t>
+  </si>
+  <si>
+    <t>Se levanta la sesión y se cita para la que tendrá lugar el próximo martes 22 de diciembre de 2015, a las 11 horas.</t>
+  </si>
+  <si>
+    <t>Más bien la universidad pública fue la que me ayudó a salir adelante, la que me educó, la que me abrazó y ha permitido que muchos hombres y mujeres en este país
+puedan acceder a otro nivel de vida.</t>
+  </si>
+  <si>
+    <t>En el uso de la palabra la diputada Mariana Rodríguez Mier y Terán, del PRI.</t>
+  </si>
+  <si>
+    <t>Diputadas, diputados, como hace 33 años, este día estamos de luto.</t>
+  </si>
+  <si>
+    <t>Tiene ahora la palabra la diputada Norma Rocío Nahle García, del Grupo Parlamentario de Morena, para presentar una propuesta de modificación a partir de una reserva.</t>
+  </si>
+  <si>
+    <t>Tiene ahora la palabra el diputado Omar Ortega Álvarez, del Grupo Parlamentario del Partido de la Revolución Democrática.</t>
+  </si>
+  <si>
+    <t>Saludamos la presencia de un grupo de estudiantes de la Universidad Autónoma del Estado de Morelos, de la carrera de administración pública, invitados por el diputado Ángel García Yáñez.</t>
+  </si>
+  <si>
+    <t>Se recibieron oficios de la Junta de Coordinación Política, en relación con cambios de integrantes y de juntas directivas de diversas comisiones.</t>
+  </si>
+  <si>
+    <t>Tiene ahora la palabra la diputada Paola Félix Díaz, hasta por cinco minutos, para presentar iniciativa con proyecto de decreto que reforma el artículo 261 del Reglamento de la Cámara de Diputados, suscrita por diputados integrantes del Grupo Parlamentario del Verde Ecologista.</t>
+  </si>
+  <si>
+    <t>Las legisladoras y los legisladores que estén por la negativa sírvanse manifestarlo levantando su mano (votación).</t>
+  </si>
+  <si>
+    <t>Gracias, diputado Erik Juárez Blanquet, del Grupo Parlamentario del Partido de la Revolución Democrática.</t>
+  </si>
+  <si>
+    <t>Se recibió de la Comisión Nacional de los Derechos Humanos el informe especial sobre personas mayores en los centros penitenciarios de la República Mexicana.</t>
+  </si>
+  <si>
+    <t>Dunyasca García Rojas: Por instrucciones de la Presidencia, en votación económica se consulta a la asamblea si se dispensa la lectura del orden del día.</t>
+  </si>
+  <si>
+    <t>¿Falta algún diputado o diputada por pasar a emitir su voto?</t>
+  </si>
+  <si>
+    <t>Estimada presidenta, quiero saber quién decidió bajar de nuestro orden del día los tres dictámenes que fueron quitados.</t>
+  </si>
+  <si>
+    <t>Las diputadas y los diputados que se encuentren por la afirmativa, favor de manifestarlo (votación).</t>
+  </si>
+  <si>
+    <t>Amigas y amigos congresistas, en una sola intervención voy a hablar a favor de los tres dictámenes que he reservado y que hemos trabajado de manera coordinada, consensuando todo lo que le convenga a nuestro país.</t>
+  </si>
+  <si>
+    <t>Para lo mismo, presidente, pedirle a mi paisano, al diputado Cándido, que nos permita también suscribir esta importante iniciativa que va a beneficiar, entre muchos, al estado de Oaxaca, obviamente.</t>
+  </si>
+  <si>
+    <t>Esperemos que esta ley que aprueba esta Cámara de Diputados sea ratificada por la colegisladora y nos permita contar con el marco jurídico necesario, para hacer posible que México no esté clasificado dentro de los países donde la tortura es una práctica cotidiana.</t>
+  </si>
+  <si>
+    <t>No se ha emitido la alerta, por lo cual solicito suscribirme y reitero el exhorto que presenté recientemente al respecto.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra hasta por tres minutos la diputada Lucely del Perpetuo Socorro Alpizar Carrillo, del Grupo Parlamentario del PRI, para presentar iniciativa con proyecto de decreto por el que se declara 2006 Centenario de los Congresos Feministas de Yucatán.</t>
+  </si>
+  <si>
+    <t>Tiene el uso de la palabra el diputado Eduardo Ron Ramos, de Movimiento Ciudadano, hasta por cinco minutos.</t>
+  </si>
+  <si>
+    <t>El siguiente punto del orden del día es la lectura del acta de la sesión constitutiva.</t>
+  </si>
+  <si>
+    <t>Desde hace años he luchado contra una enfermedad silenciosa que día a día cobra la vida de personas de todas las edades.</t>
+  </si>
+  <si>
+    <t>Señor secretario Eviel Pérez Magaña, bienvenido a esta Cámara de los Diputados.</t>
+  </si>
+  <si>
+    <t>Hago uso de la tribuna para presentar la iniciativa con proyecto de decreto por el que se reforman y adicionan diversas disposiciones al artículo 28 de nuestra Constitución, en materia de reconocimiento de los derechos de los consumidores.</t>
+  </si>
+  <si>
+    <t>Si no puede hacerlo ya, de viva voz entonces.</t>
+  </si>
+  <si>
+    <t>No habiendo más oradores inscritos, consulte la Secretaría a la asamblea si se encuentra suficientemente discutido en lo general y en lo particular.</t>
+  </si>
+  <si>
+    <t>Se informa a la asamblea que se encuentra publicado en la Gaceta Parlamentaria y disponible en el monitor de sus curules el dictamen de la Comisión de Justicia, con proyecto de decreto por el que se expide la Ley Orgánica de la Fiscalía General de la República.</t>
+  </si>
+  <si>
+    <t>A favor en lo general, y en contra por la cerrazón a darle a los mexicanos una ley de calidad.</t>
+  </si>
+  <si>
+    <t>Para conocer el criterio de quien presidía en ese momento la sesión, tomará la palabra la presidente.</t>
+  </si>
+  <si>
+    <t>Al principio en el orden del día leímos el orden del día y las intervenciones a que se refieren.</t>
+  </si>
+  <si>
+    <t>Martha Sofía Tamayo Morales: De conformidad con el artículo 104, numeral 1, fracción IV del Reglamento de la Cámara de Diputados, se han registrado para fijar posición hasta por cinco minutos los diputados Maricela Contreras Julián, del Grupo Parlamentario de Movimiento Regeneración Nacional, y la diputada Fabiola Rosas Cuautle, del PRI, por lo que le concedemos la participación a la primera de ellas, por cinco minutos para fijar
+posición por su partido.</t>
+  </si>
+  <si>
+    <t>Con proyecto de decreto por el que se reforma el artículo 96, párrafo segundo de la Ley del Impuesto Sobre la Renta, presentada por el senador Samuel Alejandro García Sepúlveda, del Grupo Parlamentario de Movimiento Ciudadano.</t>
+  </si>
+  <si>
+    <t>Estas son personas que han llegado en su mayoría al fin de su vida productiva, y una importante proporción lo han hecho sin haber cotizado para un fondo de pensiones.</t>
+  </si>
+  <si>
+    <t>Como indígena zapoteco del estado de Oaxaca, Morena, Víctor Blas López, a favor, nunca más la opulencia.</t>
+  </si>
+  <si>
+    <t>Para proceder a la discusión sobre esta propuesta, de conformidad con el artículo 113, numeral 1, fracción I del Reglamento de la Cámara de Diputados, se han registrado para la discusión de la proposición las siguientes diputadas y diputados, quienes tendrán el uso de la palabra hasta por tres minutos.</t>
+  </si>
+  <si>
+    <t>Consulte la Secretaría en votación económica sin son de aprobarse, en razón de que se encuentran disponibles en las pantallas de sus curules.</t>
+  </si>
+  <si>
+    <t>Pido a la Secretaría que consulte a la asamblea si se dispensa su lectura, tomando en consideración que ha sido publicada en la Gaceta Parlamentaria.</t>
+  </si>
+  <si>
+    <t>...o utilizar las zonas marítimas y especialmente las playas de nuestro México.</t>
+  </si>
+  <si>
+    <t>En votación económica, consulte la Secretaría a la asamblea si se aprueba el dictamen con la terna propuesta a este pleno por la Comisión de Vigilancia de la Auditoría Superior de la Federación.</t>
+  </si>
+  <si>
+    <t>Martha Sofía Tamayo Morales: Remítase a las comisiones de Asuntos Migratorios y de Presupuesto y Cuenta Pública para su conocimiento.</t>
+  </si>
+  <si>
+    <t>En los tiempos para declarar la alerta de género, como bien lo dice él y lo propuse hace unos meses, tarda hasta un año.</t>
+  </si>
+  <si>
+    <t>En este análisis el último Informe de Gobierno, me gustaría iniciar diciendo y preguntarle a la bancada del PRI ¿hacia dónde se desviaron 700 millones de pesos en efectivo?</t>
+  </si>
+  <si>
+    <t>Bien, me sumo a las expresiones hechas por quienes me han antecedido en el uso de la palabra.</t>
+  </si>
+  <si>
+    <t>Con la venia de la Presidencia, muy buenas tardes a todos mis compañeros y compañeras diputadas.</t>
+  </si>
+  <si>
+    <t>Consulte la Secretaría a la asamblea en votación económica si se aprueba.</t>
+  </si>
+  <si>
+    <t>Hoy por la mañana en la Junta de Coordinación Política le mencionaba la gran necesidad de continuar con los trabajos de esta Cámara.</t>
+  </si>
+  <si>
+    <t>Ábrase el sistema electrónico por cinco minutos para proceder a la votación en lo general y en lo particular.</t>
+  </si>
+  <si>
+    <t>De acuerdo a las cifras del análisis del ejercicio del Presupuesto de Egresos de Desarrollo Social, en los años 2016 y 2017 se presenta una disminución con una variable de más, de menos del 10 por ciento en el presupuesto ejercido, esta afectación real perjudica radicalmente el cabal cumplimiento de las promesas ofrecidas de
+los últimos tres años por el titular del Ejecutivo saliente.</t>
+  </si>
+  <si>
+    <t>Y no habiendo quien solicite hacer uso de la palabra, consulte la Secretaría a la asamblea, en votación económica, si se aprueba el acuerdo.</t>
+  </si>
+  <si>
+    <t>Para formular su pregunta tiene la palabra el diputado Francisco Javier Saldivar Camacho, del Grupo Parlamentario de Encuentro Social, hasta por tres minutos.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros diputados, la construcción de infraestructura es una de las formas más tangibles y concretas de visualizar el desarrollo de una nación, ésta representa un mecanismo de atracción de inversiones, generación de empleos, y permite cerrar brechas de desigualdad entre regiones y personas.</t>
+  </si>
+  <si>
+    <t>Se le concede el uso de la palabra al diputado Juan Manuel Celis Aguirre e integrante del Grupo Parlamentario del Partido Verde Ecologista, para presentar iniciativa con proyecto de decreto que reforma y adiciona el artículo 8o.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, hasta por cinco minutos, el diputado Alfredo Porras Domínguez, para presentar proposición con punto de acuerdo por el que se exhorta a la Secretaría de Comunicaciones y Transportes a llevar a cabo la ampliación y construcción de la infraestructura carretera del estado de Baja California Sur, en atención a la problemática de falta de caminos que prevalece en dicha entidad, suscrito por
+diputados integrantes del Grupo Parlamentario del Partido del Trabajo.</t>
+  </si>
+  <si>
+    <t>A nivel mundial la migración internacional ha crecido en volumen, alcance, complejidad e importancia demográfica en los últimos 20 años.</t>
+  </si>
+  <si>
+    <t>Señoras diputadas y señores diputados, la Constitución Política de los Estados Unidos Mexicanos establece que, el artículo 4, toda persona, todos los mexicanos tenemos derecho a la protección de la salud, ello implica la existencia de la infraestructura necesaria para lograr tal finalidad.</t>
+  </si>
+  <si>
+    <t>Para solicitarle a la diputada Tania, si permite suscribir su iniciativa tan importante.</t>
+  </si>
+  <si>
+    <t>Turnaré el asunto a la Secretaría General para que se haga la indagatoria necesaria y, en su caso, las aclaraciones o correcciones pertinentes.</t>
+  </si>
+  <si>
+    <t>Honorable asamblea, somos hijas, madres, tías, nietas, sobrinas, abuelas, hermanas y nos están matando.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, hasta por cinco minutos, el diputado Ricardo Flores Suárez, para presentar iniciativa con proyecto de decreto que reforma los artículos 4o, 30, 94 y 95 de la Ley General de Cultura Física y Deporte, suscrita por diputadas y diputados integrantes del Partido Acción Nacional.</t>
+  </si>
+  <si>
+    <t>El Congreso General de los Estados Unidos Mexicanos abre hoy, primero de septiembre de 2018, el primer periodo de sesiones ordinarias del primer año de ejercicio de la LXIV Legislatura.</t>
+  </si>
+  <si>
+    <t>Hoy la sociedad mexicana tiene muchas esperanzas en esta nueva legislatura.</t>
+  </si>
+  <si>
+    <t>En consecuencia, y de conformidad con el artículo 113, numeral 1, fracción I, del Reglamento de la Cámara de Diputados, se han registrado para la discusión de la proposición los siguientes diputados y diputadas, hasta por tres minutos.</t>
+  </si>
+  <si>
+    <t>El día de ayer inició la Caravana de Pies Cansados de nuestros hermanos chiapanecos, y así como nosotros brindamos apoyo a la caravana migrante, es tiempo de exigir al gobierno de Manuel Velasco, que les dé acompañamiento y sobre todo que explique por qué están desplazados, porque es un contingente de 200, pero hay 2 mil desplazados y queremos saber por qué están en esta situación.</t>
+  </si>
+  <si>
+    <t>El siguiente punto del orden del día es la discusión del dictamen de la Comisión de Salud, con proyecto de decreto por el que se adiciona un artículo 125 Bis a la Ley General de Salud.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra por cinco minutos, el diputado Óscar Bautista Villegas, para presentar la iniciativa con proyecto de decreto que reforma y adiciona diversas disposiciones a la Ley General de Educación y a la Ley Federal del Trabajo, suscrita por diputados integrantes del Grupo Parlamentario del Partido Verde Ecologista de México.</t>
+  </si>
+  <si>
+    <t>La diputada Martha Estela Romo Cuéllar, del Partido Acción Nacional.</t>
+  </si>
+  <si>
+    <t>Consulte la Secretaría si se admiten a discusión las reservas presentadas.</t>
+  </si>
+  <si>
+    <t>Tiene ahora el uso de la palabra, hasta por cinco minutos, el diputado René Cervera García, para fijar postura del Grupo Parlamentario de Movimiento Ciudadano.</t>
+  </si>
+  <si>
+    <t>A los millones de ciudadanos que en el transcurso de la historia han demandado democracia para la ciudad.</t>
+  </si>
+  <si>
+    <t>Antes de que inicie la segunda ronda solo para precisar que según el artículo 23, fracción L de la Ley Orgánica del Congreso General de los Estados Unidos Mexicanos, le corresponde a la Presidencia de la Mesa Directiva interponer el recurso correspondiente ante la mentira permanente y contumaz con que el secretario de Desarrollo Social está actuando en esta comparecencia.</t>
+  </si>
+  <si>
+    <t>Si de verdad se quisiera poder regular cómo conocer
+el patrimonio de quien sí hace negocios claramente con el Estado.</t>
+  </si>
+  <si>
+    <t>El diputado Oscar Bautista Villegas en el uso de la palabra, hasta por cinco minutos.</t>
+  </si>
+  <si>
+    <t>El siguiente punto del orden del día, es la discusión del dictamen de la Comisión de Régimen, Reglamentos y Prácticas Parlamentarias con proyecto de decreto por el que la LXIV Legislatura de la Cámara de Diputados otorga la Medalla de Honor Gilberto Rincón Gallardo, con dispensa de trámite.</t>
+  </si>
+  <si>
+    <t>...A esta nueva mayoría de Morena también le decimos: aquí están nuestros votos para eliminar el fuero.</t>
+  </si>
+  <si>
+    <t>Continuamos y tiene la palabra por res minutos la diputada Ximena Tamariz García, del Grupo Parlamentario del PAN para presentar iniciativa con proyecto de decreto que reforma los artículos 132 y 160 de la Ley Federal del Trabajo.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra ahora el diputado Gerardo Gabriel Cuanalo Santos, del Grupo Parlamentario del PAN.</t>
+  </si>
+  <si>
+    <t>Es la ley que define los derechos, las libertades y deberes que tienen los integrantes de la nación.</t>
+  </si>
+  <si>
+    <t>Reiterar el respetuoso exhorto para que podamos desahogar la agenda y reitero, probablemente ésta sea la penúltima sesión.</t>
+  </si>
+  <si>
+    <t>La Constitución de 1917 es la ley fundamental del país, y en ella se establece su organización política y social.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros, velar por el bienestar de los trabajadores y de su patrimonio es nuestra tarea como legisladores.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra la diputada Irma María Terán Villalobos, del Grupo Parlamentario del Partido Revolucionario Institucional.</t>
+  </si>
+  <si>
+    <t>El siguiente punto en el orden del día es la comparecencia del titular de la Secretaría de Desarrollo Social, el ciudadano Eviel Pérez Magaña, quien se encuentra en el salón de Protocolo de esta Cámara de Diputados.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra la diputada Nayeli Salvatori Bojalil, del Grupo Parlamentario del Partido Encuentro Social.</t>
+  </si>
+  <si>
+    <t>Informo a la Presidencia que existen registrados previamente 269 diputadas y diputados, por lo tanto hay quórum.</t>
+  </si>
+  <si>
+    <t>¿Algún diputado, alguna diputada falta de emitir su voto?</t>
+  </si>
+  <si>
+    <t>El siguiente punto del orden del día es la discusión del dictamen con proyecto de decreto por el que se expide la Ley de Transición Energética.</t>
+  </si>
+  <si>
+    <t>En votación económica se consulta a la asamblea si se encuentra suficientemente discutido.</t>
+  </si>
+  <si>
+    <t>Honorable asamblea, el día de ayer se recibió del Senado de la República y se remitió de inmediato a la Comisión de Transparencia y Anticorrupción, para dictamen, la minuta sobre las observaciones del Ejecutivo federal al decreto por el que se expide la Ley General del Sistema Nacional Anticorrupción, la Ley General de Responsabilidades Administrativas, y la Ley Orgánica del Tribunal Federal de Justicia
+Administrativa.</t>
+  </si>
+  <si>
+    <t>Nos preguntamos cuál sería los temas concretos, la agenda, los puntos a tratar.</t>
+  </si>
+  <si>
+    <t>Pido a la Secretaría consulte, en votación económica, a la asamblea si se aprueba el Comité de Administración de la Cámara de Diputados, propuesto por la Junta de Coordinación Política.</t>
+  </si>
+  <si>
+    <t>Tiene ahora el uso de la palabra, el diputado Francisco Javier Luévano Núñez, del Grupo Parlamentario del PAN.</t>
+  </si>
+  <si>
+    <t>A mí me parece muy extraño que se haya tomado la decisión, como dicen que se tomó, y ahorita el diputado Neri está diciendo que es falso.</t>
+  </si>
+  <si>
+    <t>Presidenta, este es un parlamento, yo estoy dando elementos para justificar mi adhesión a la iniciativa.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra hasta por cinco minutos, el diputado Javier Salinas Narváez, para presentar iniciativa con proyecto de decreto que expide la Ley del Impuesto sobre los Ingresos Procedentes de Servicios Digitales, suscrita por diputados integrantes del Grupo Parlamentario del PRD.</t>
+  </si>
+  <si>
+    <t>Hace un año y también en 1985 se escribieron 2 de los capítulos más dolorosos de la historia del pueblo de México, los centenares de fallecidos y sus familias han vivido en carne propia una pena que el resto apenas podemos sospechar.</t>
+  </si>
+  <si>
+    <t>Vamos a pasar, diputadas y diputados, al siguiente punto en el orden del día que son las proposiciones de urgente u obvia resolución.</t>
+  </si>
+  <si>
+    <t>La primera, que reforma los artículos 110 de la Ley Federal del Trabajo, 38 de la Ley Federal de los Trabajadores al Servicio del Estado, Reglamentaria del Apartado B) del Artículo 123 Constitucional, y adiciona un artículo 336 Ter al Código Penal Federal.</t>
+  </si>
+  <si>
+    <t>Como recordamos quedó pendiente la segunda ronda para luego pasar al otro tema de política social, en este caso la segunda ronda en materia de política económica.</t>
+  </si>
+  <si>
+    <t>Impulsaremos la Ley de Consulta Indígena, se propondrá la modificación al artículo 2 constitucional, en el que se le reconocerá como sujeto de derecho y no de interés público.</t>
+  </si>
+  <si>
+    <t>En votación económica se pregunta a la asamblea si se admiten a discusión.</t>
+  </si>
+  <si>
+    <t>Y, si no tiene inconveniente, me comeré a lo mejor un minutito más, presidente.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, hasta por cinco minutos, la diputada María Lucero Saldaña Pérez, para presentar iniciativa con proyecto de decreto que reforma el artículo 64 de la Ley General de Víctimas, suscrita por diputados integrantes del Grupo Parlamentario del PRI.</t>
+  </si>
+  <si>
+    <t>Pero también constatar los 50 grados en sensación térmica que hace en el verano en el estado de Yucatán, que... mucho de ese estado.</t>
+  </si>
+  <si>
+    <t>Por instrucciones de la Presidencia, en votación económica, se consulta a la asamblea si se dispensa la lectura al orden del día.</t>
+  </si>
+  <si>
+    <t>Se levanta la sesión y se cita para la que tendrá lugar mañana miércoles 14 de octubre de 2015 a las 11 horas.</t>
+  </si>
+  <si>
+    <t>Consulte la Secretaría a la asamblea si toma en consideración inmediatamente para su discusión la moción suspensiva presentada por el diputado Romero Tenorio.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros legisladores, Estado de México, la peor entidad federativa para ser mujer en el país.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra por cinco minutos, la diputada Lucero Saldaña Pérez, para presentar iniciativa con proyecto de decreto que reforma los artículos 57 de la Ley General de los Derechos de Niñas, Niños y Adolescentes y 260 del Código Penal Federal suscrita por diputados integrantes del Grupo Parlamentario del PRI.</t>
+  </si>
+  <si>
+    <t>No queremos dejar pasar desapercibida la oportunidad en la bancada del PRD para felicitarlo, presidente.</t>
+  </si>
+  <si>
+    <t>La Junta de Coordinación Política nos hizo llegar el documento, el acuerdo, y lo que vamos a discutir en este momento es lo que nos mandó a nosotros la Junta de Coordinación Política.</t>
+  </si>
+  <si>
+    <t>Consulte la Secretaría a la asamblea si se dispensa la lectura al orden del día, en virtud de que se encuentra publicado en la Gaceta Parlamentaria.</t>
+  </si>
+  <si>
+    <t>Tiene ahora, para hablar en pro, la palabra hasta por cinco minutos el senador Ricardo Barroso Agramont, del Grupo Parlamentario del PRI.</t>
+  </si>
+  <si>
+    <t>Con proyecto de decreto por el que se declara la segunda semana de noviembre de cada año como la Semana nacional para prevenir el sobrepeso, la obesidad y los trastornos de la conducta alimentaria.</t>
+  </si>
+  <si>
+    <t>Se recibieron comunicaciones de la Junta de Coordinación Política en relación a cambios de integrantes en comisiones ordinarias y especiales, que se encuentran disponibles en los monitores de sus curules.</t>
+  </si>
+  <si>
+    <t>senador Luis Humberto Fernández Fuentes: Consulto a la asamblea, en votación económica, si es de aprobarse el punto en comento.</t>
+  </si>
+  <si>
+    <t>Por esa razón planteamos la creación de un comité bicamaral para el parlamento abierto, a efecto de que sea una instancia del más alto nivel, en la que se homologuen los procesos generales, así como los mecanismos de interacción con las y los ciudadanos, con la finalidad de darle operatividad práctica a dicho comité y de que sus determinaciones se proyecten en sendas Cámaras, es que proponemos que tenga una presidencia compartida por dos
+legisladores o legisladoras, una diputada o diputado y un senador o senadora de la República.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, la diputada Martha Hortencia Garay Cadena, del Grupo Parlamentario del Partido Revolucionario Institucional.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, hasta por cinco minutos, la diputada Frida Alejandra Esparza Márquez, del Grupo Parlamentario del PRD, para presentar iniciativa con proyecto de decreto que reforma el artículo 9o.</t>
+  </si>
+  <si>
+    <t>Por favor, no es asunto del orden del día, pero ya que lo solicitó, la Mesa Directiva se ocupó ya de este problema y está esperando el informe de la Procuraduría del estado.</t>
+  </si>
+  <si>
+    <t>En virtud de que se ha cumplido con el requisito de la declaratoria de publicidad del dictamen de la Comisión de Igualdad de Género, con proyecto de decreto por el que se adiciona el inciso a), de la fracción II del artículo 12 de la Ley del Instituto Nacional de las Mujeres, pido a la Secretaría consulte a la asamblea, en votación económica, si autoriza que se someta a discusión y votación de inmediato.</t>
+  </si>
+  <si>
+    <t>Le pido que respete mi derecho de la alusión personal, que además no voy a profundizar en el tema, solo quiero hacer una aclaración a la intervención que hizo.</t>
+  </si>
+  <si>
+    <t>Se pregunta nuevamente si alguna diputada o diputado falta de emitir su voto.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros legisladores, señoras y señores de los medios de comunicación, ciudadanía que nos acompaña por el Canal del Congreso, el día de hoy acudo a esta tribuna de las decisiones para exponer ante ustedes el proyecto de decreto por el que se adicionan las fracciones XXVII, XXVIII y XXIX al artículo 3 y se reforman los artículos 78 y 85 del Reglamento de la Cámara de las y los diputados
+para incorporar el enfoque de la perspectiva de género en la formulación de iniciativas.</t>
+  </si>
+  <si>
+    <t>La Cámara de Diputados del Honorable Congreso de la Unión, en su LXIV Legislatura expide el Bando Solemne para dar a conocer en toda la República la declaración de presidente electo de los Estados Unidos Mexicanos.</t>
+  </si>
+  <si>
+    <t>Para nosotros, el Partido del Trabajo, es muy importante cumplirle al pueblo, lo vamos a hacer, no les vamos a fallar.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros diputados, para el Grupo Parlamentario del Partido Acción Nacional dar verdadera respuesta y no pretextos a las necesidades de los mexicanos es un tema prioritario.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, hasta por cinco minutos, la diputada Liliana Ivette Madrigal Méndez, del Grupo Parlamentario del Partido Revolucionario Institucional, para presentar iniciativa con proyecto de decreto que reforma el artículo 123 de la Constitución Política de los Estados Unidos Mexicanos.</t>
+  </si>
+  <si>
+    <t>La Comisión Permanente del Congreso de la Unión tiene la responsabilidad de dar continuidad a las funciones políticas, jurídicas, administrativas y de control del poder Legislativo durante los periodos de recesos contemplados por la ley.</t>
+  </si>
+  <si>
+    <t>Háganse los avisos a que se refiere el artículo 144, numeral 2 del Reglamento de la Cámara de Diputados.</t>
+  </si>
+  <si>
+    <t>Por instrucciones de la Presidencia, en votación económica se consulta si se admite a discusión.</t>
+  </si>
+  <si>
+    <t>Con su venia, señor presidente; buenas tardes, diputadas y diputados.</t>
+  </si>
+  <si>
+    <t>Tiene ahora la palabra el diputado Omar Noé Bernardino Vargas, del Grupo Parlamentario del Verde Ecologista.</t>
+  </si>
+  <si>
+    <t>En votación económica se pregunta a la asamblea si se toma en consideración de inmediato para su discusión la moción suspensiva.</t>
+  </si>
+  <si>
+    <t>Con el objeto de reconocerle su sensibilidad y tolerancia porque pudo haber decretado que la sesión se suspendía por falta de quórum y dio oportunidad a que compañeros y compañeras registraran su asistencia.</t>
+  </si>
+  <si>
+    <t>La fracción independiente no puede ser ajena a esta felicitación al trabajo realizado por usted, señor presidente.</t>
+  </si>
+  <si>
+    <t>En votación económica se consulta si se dispensa la lectura al acta de la sesión anterior.</t>
+  </si>
+  <si>
+    <t>Dunyaska García Rojas: Las diputadas y los diputados que estén por la negativa favor de manifestarlo (votación).</t>
+  </si>
+  <si>
+    <t>...como un estado de intoxicación periódica o crónica producida por el consumo repetido de una droga natural o sintética que puede traer consigo la alteración del sistema nervioso, mandando señales erróneas al cerebro.</t>
+  </si>
+  <si>
+    <t>A favor de la minuta en sus términos, Raquel Bonilla Herrera, Morena, Veracruz.</t>
+  </si>
+  <si>
+    <t>Sin embargo, en la práctica su aplicación era excesiva ya no siendo la
+excepción, sino todo lo contrario, lo ordinario.</t>
+  </si>
+  <si>
+    <t>Remítase a las Comisiones de Presupuesto y Cuenta Pública, y de Desarrollo Social de la Cámara de Diputados, para su conocimiento.</t>
+  </si>
+  <si>
+    <t>Se recibió oficio del diputado Julián Nazar Morales, por el que se comunica la reincorporación a sus actividades legislativas a partir del 24 de abril del año en curso.</t>
+  </si>
+  <si>
+    <t>Únicamente para solicitarle al diputado adherirme a esta iniciativa, la cual es muy interesante y felicitarlo por ella.</t>
+  </si>
+  <si>
+    <t>Secretario Eviel Pérez Magaña, en el actual sexenio la Secretaría a su cargo habrá gastado 584 mil millones de pesos, casi 100 mil millones de pesos anuales para sufragar una política social que mantiene a 53 millones de mexicanos en la pobreza, y ese gasto es tan solo una parte de los casi 2 billones que dicen gastar anualmente en programas y políticas relacionadas con el desarrollo social.</t>
+  </si>
+  <si>
+    <t>Reconozco la consideración de la Junta de Coordinación Política, al darle trámite e interés, así como por permitir traer a la discusión esta iniciativa propuesta por el Grupo Parlamentario del PRD, la cual obedece a un tema que ha sensibilizado a la sociedad.</t>
+  </si>
+  <si>
+    <t>En votación económica, se consulta a la asamblea si se toma en consideración la moción suspensiva.</t>
+  </si>
+  <si>
+    <t>Primeramente, le solicito a la Presidencia de la Mesa Directiva se corrija en el Diario de los Debates, precisar que sí estoy de acuerdo en la austeridad republicana que se plantea por los grupos parlamentario que conforman este Congreso.</t>
+  </si>
+  <si>
+    <t>A lo largo de más de 500 años, los pueblos y comunidades indígenas presenciaron un paulatino despojo de sus territorios ancestrales, la anulación de gobiernos propios, sus culturas y a ser olvidados y discriminados por las leyes de este país, habitar
+territorios inhóspitos, los cuales hoy paradójicamente son grandes reservas ecológicas.</t>
+  </si>
+  <si>
+    <t>De obras que cumplan con su objetivo de modernizar la red de carreteras en la entidad.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra el diputado Jorge Alcibíades García Lara, del Partido Movimiento Ciudadano.</t>
+  </si>
+  <si>
+    <t>Muchas gracias don Javier Bolaños, vicepresidente de esta Cámara.</t>
+  </si>
+  <si>
+    <t>Pero coincido, no podemos recordar al movimiento del 68 tan solo con unas letras si no hay justicia, si se pasean por las calles los que torturaron y mataron y desaparecieron a estudiantes en 1968.</t>
+  </si>
+  <si>
+    <t>se fundamenta totalmente, dice el acuerdo que estamos votando: En un plazo no mayor de 10 días hábiles, contados a partir de la aprobación del presente acuerdo, los coordinadores parlamentarios propondrán la correspondiente reforma al numeral 2 del artículo 39 de la Ley Orgánica del Congreso General de los Estados Unidos Mexicanos, para
+ajustar las disposiciones al contenido de este acuerdo.</t>
+  </si>
+  <si>
+    <t>En los términos de los artículos 100 y 102 del Reglamento, las iniciativas y proposiciones contenidas en el orden del día y no presentadas en tribuna serán turnadas a las comisiones correspondientes, publicándose el turno en la Gaceta Parlamentaria.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra el diputado Arturo Roberto Hernández Tapia, de Morena.</t>
+  </si>
+  <si>
+    <t>Se recibió del Instituto Mexicano del Seguro Social el informe sobre la composición y situación financiera de sus inversiones, correspondiente al segundo trimestre de 2018.</t>
+  </si>
+  <si>
+    <t>Y lo que no le gustaba, lo más triste, el presidente de la República estuvo ahí, recorrió la zona afectada, estuvo tomándose selfies con los afectados, él sabe de lo que estamos hablando.</t>
+  </si>
+  <si>
+    <t>Como es del conocimiento público el estado de México, junto con el estado de Veracruz, encabezamos a nivel nacional, de la forma más deshonrosa y vergonzante, la lista de las entidades federativas con el mayor número de feminicidios cometidos en este año.</t>
+  </si>
+  <si>
+    <t>El diputado Coheto reitera su aquiescencia para que puedan suscribirla, y por lo que veo puede tener un amplio consenso aquí.</t>
+  </si>
+  <si>
+    <t>Yo creo que todos los partidos, el día de hoy hemos subido muchos compañeros de todos los partidos el día de hoy a debatir, a proponer, pero sobre todo a ser yo creo que muy puntuales con nuestras posturas como partido.</t>
+  </si>
+  <si>
+    <t>En varios Congresos a nivel mundial el día de hoy lo han obsequiado, y espero que el Congreso, la Cámara de Diputados tome a bien el minuto de silencio del presidente Salvador Allende.</t>
+  </si>
+  <si>
+    <t>Túrnese a la Comisión de Relaciones Exteriores de la Cámara de Diputados, a la Comisión de Relaciones Exteriores de la Cámara de Senadores, y a la Segunda Comisión de Trabajo.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, hasta por diez minutos, la diputada Monserrat Alicia Arcos Velázquez, del Grupo Parlamentario del Partido Revolucionario Institucional.</t>
+  </si>
+  <si>
+    <t>Túrnese a la Comisión de Régimen, Reglamentos y Prácticas Parlamentarias, para dictamen.</t>
+  </si>
+  <si>
+    <t>Para hablar en contra tiene la palabra el diputado Alfredo Villegas Arreola, del PRI.</t>
+  </si>
+  <si>
+    <t>De conformidad con el artículo 113, numeral 1, fracción I, del Reglamento de nuestra Cámara, se han registrado para la discusión de esta propuesta diputadas y diputados integrantes de los grupos parlamentarios, que se encuentran aquí en la Cámara de los diputados, y por acuerdo de los diferentes grupos se va a conceder el uso de la palabra por un minuto y desde su curul a las diputadas
+y diputados que han estado inscritos.</t>
+  </si>
+  <si>
+    <t>Se pregunta nuevamente, ¿algún diputado o diputada falta de emitir su voto?</t>
+  </si>
+  <si>
+    <t>El siguiente orador inscrito es el diputado Jesús Valencia Guzmán, del PRD, para hablar en pro.</t>
+  </si>
+  <si>
+    <t>Manifiesta su aceptación y, por lo tanto, está a disposición de quienes quieran suscribirla aquí en la Secretaría de la Mesa Directiva.</t>
+  </si>
+  <si>
+    <t>En esta tribuna han ocupado este espacio para subir iniciativas, para proponerlas, para que queden plasmadas en instrumentos locales y como este, internacionales.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, por cinco minutos, el diputado Manuel López Castillo, del Grupo Parlamentario de Morena para presentar proposición con punto de acuerdo para atender la situación de todos los maestros jubilados o pensionados que se han visto afectados debido a la utilización de la Unidad de Medida y Actualización como referente para determinar sus pagos.</t>
+  </si>
+  <si>
+    <t>Por instrucciones de la Presidencia, en votación económica se consulta a la asamblea si se dispensa la lectura al orden del día.</t>
+  </si>
+  <si>
+    <t>Honorable Comisión Permanente y medios que el día de hoy nos acompañan.</t>
+  </si>
+  <si>
+    <t>Solicitarle a la Junta de Coordinación Política que no nos haga esto, honramos el acuerdo, pero ningún acuerdo está por encima de la ley.</t>
+  </si>
+  <si>
+    <t>Consulte la Secretaría a la asamblea, en votación económica, si se autoriza que el acta de esta sesión se dé por leída y copia de la misma se distribuya a los grupos parlamentarios para su revisión y aprobación.</t>
+  </si>
+  <si>
+    <t>El siguiente punto del orden del día es la lectura del acta de la sesión anterior.</t>
+  </si>
+  <si>
+    <t>Una participación que nos permita aportar lo mejor de nosotras en la construcción de esa patria ordenada y generosa a la que todos aspiramos.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros, yo creo que algo que no está en duda ni debe de estar en duda de nadie de nosotros ni de nadie que nos está viendo en el país, es que queremos aplazar el apagón analógico.</t>
+  </si>
+  <si>
+    <t>Dunyaska García Rojas: En votación económica, se consulta si se aprueba el acuerdo.</t>
+  </si>
+  <si>
+    <t>El diputado da su anuencia para todos aquellos que quieran suscribir esta iniciativa.</t>
+  </si>
+  <si>
+    <t>La naturaleza concentra una gran cantidad de energía que puede convertirse en una potente fuerza destructiva, por lo cual es pertinente reflexionar sobre el hecho que estamos expuestos a los efectos negativos que se desprenden de los fenómenos físicos o meteorológicos.</t>
+  </si>
+  <si>
+    <t>En el Grupo Parlamentario de Morena estamos en contra, pues se dice que el principal objetivo de esta ley es regular el aprovechamiento sustentable de la energía y con ello cumplir con la reducción de emisiones contaminantes de la industria eléctrica.</t>
+  </si>
+  <si>
+    <t>Y consulte la Secretaría a la asamblea, en votación económica, si se aprueban.</t>
+  </si>
+  <si>
+    <t>En congruencia con los trabajos que nuestro grupo parlamentario ha realizado y en sintonía con la propuesta de eliminar totalmente el cobro de IEPS a gasolinas, el día de hoy presento ante este pleno a nombre de las diputadas y diputados del Grupo Parlamentario del Partido Acción Nacional iniciativa que reforma la Ley de IVA en materia de la tasa aplicable a la región
+fronteriza.</t>
+  </si>
+  <si>
+    <t>Héctor Yunes, ratifico mi voto en favor en lo general y en contra de la pobreza parlamentaria del grupo mayoritario de San Lázaro.</t>
+  </si>
+  <si>
+    <t>Con respeto, con respeto y ánimo constructivo quiero decirles que la agenda progresista que impulsamos durante décadas desde la fuerza política que represento, y en la administración del presidente Enrique Peña Nieto, que ustedes rechazaron y criticaron como oposición, les va a servir de andamiaje cuando asuman la enorme responsabilidad de ser
+gobierno.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros diputados, presentamos iniciativa con proyecto de decreto mediante el cual se adiciona el numeral 2 al artículo 88 de la Ley Orgánica del Congreso General de los Estados Unidos Mexicanos, y el artículo 56 de la Ley General de Seguridad Nacional, en materia de integración de las comisiones bicamerales.</t>
+  </si>
+  <si>
+    <t>Diputadas y diputados, el texto vigente de nuestra ley fundamental consagra el derecho de toda persona al libre acceso a la información plural y oportuna, así como a buscar, recibir, difundir información e ideas de toda índole por cualquier medio de expresión.</t>
+  </si>
+  <si>
+    <t>Por instrucciones de la Presidencia, en votación económica se pregunta si se aprueba el acuerdo.</t>
+  </si>
+  <si>
+    <t>El Instituto Nacional de Migración remite el informe trimestral de avances financieros correspondiente a diversos programas de protección de migrantes, así como los avances financieros con cifras preliminares y el acumulado correspondiente al cuarto trimestre del ejercicio fiscal de 2017.</t>
+  </si>
+  <si>
+    <t>Que permita garantizar una sociedad en paz, una sociedad igualitaria, pero sobre todo una sociedad incluyente y exitosa que nos permita seguir moviendo a México.</t>
+  </si>
+  <si>
+    <t>Ábrase el sistema electrónico de votación hasta por cinco minutos para proceder a la votación en lo general y en lo particular, de los artículos no reservados.</t>
+  </si>
+  <si>
+    <t>Intervengo a favor del punto de acuerdo del diputado Morales Elvira, por el que se solicita a la Secretaría de Hacienda que se aplique la normatividad y se ejerzan de forma adecuada los ingresos por concepto del impuesto a los alimentos con alta densidad calórica y bebidas azucaradas.</t>
+  </si>
+  <si>
+    <t>Hace un año nuevamente nuestra solidaridad se puso a prueba por los sismos del día 7 y 19 de septiembre, fueron momentos difíciles y de incertidumbre para todos, pero también de unidad.</t>
+  </si>
+  <si>
+    <t>Tiene ahora el uso de la palabra hasta por cinco minutos el diputado Jesús Rafael Méndez Salas, del Grupo Parlamentario de Nueva Alianza.</t>
+  </si>
+  <si>
+    <t>Porque usted conoce, como yo, que ése tema no está en la reforma; que no está en la reforma.</t>
+  </si>
+  <si>
+    <t>La Cámara de Diputados del Honorable Congreso de la Unión condena energéticamente la violencia política y el atentado sufrido por el alcalde electo en Gómez Farías, Chihuahua, Blas Juan Godínez Ortega y exhorta a las autoridades competentes a proveer a su pronto esclarecimiento.</t>
+  </si>
+  <si>
+    <t>Túrnese a las Comisiones Unidas de Desarrollo Social y de Presupuesto y Cuenta Pública, para dictamen.</t>
+  </si>
+  <si>
+    <t>Estamos a unos cuantos meses del término de nuestra misión como diputados y diputadas federales.</t>
+  </si>
+  <si>
+    <t>Ciertamente transitar por las carreteras de la península de Baja California y por ende de Baja California Sur, es como un viaje al pasado.</t>
+  </si>
+  <si>
+    <t>Bueno, sí, en el mismo tema, que sigamos con el orden del día.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, hasta por cinco minutos, la diputada Leticia Mariana Gómez Ordaz, para presentar iniciativa con proyecto de decreto que reforma el artículo 7o.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra también por cinco minutos el diputado Guadalupe Acosta Naranjo, del Grupo Parlamentario del PRD, para presentar iniciativa con proyecto de decreto que reforma y adiciona diversas disposiciones de la Constitución Política de los Estados Unidos Mexicanos.</t>
+  </si>
+  <si>
+    <t>El pasado 16 de septiembre, aproximadamente a las 11 de la noche, las fuertes lluvias en mi estado, Morelos, generaron inundaciones de más de un metro de altura, provocando graves daños a la población de 15 colonias del municipio de Jojutla.</t>
+  </si>
+  <si>
+    <t>Túrnese a la Comisión de Comercio y Fomenta Industrial de la Cámara de Senadores.</t>
+  </si>
+  <si>
+    <t>Marco Antonio Carbajal Miranda, Morena, Sonora, a favor, por México.</t>
+  </si>
+  <si>
+    <t>Pido a la Secretaría que haga del conocimiento de esta Presidencia el resultado del cómputo de asistencia de diputadas y diputados.</t>
+  </si>
+  <si>
+    <t>Emeteria Claudia Martínez Aguilar, del estado de Chiapas, a favor, de Morena.</t>
+  </si>
+  <si>
+    <t>Ella ya ha dado su autorización, está a su disposición en la Secretaría para poder ser suscrita.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros diputados, el día de hoy, sin duda, revisaremos trascedentes iniciativas que tienen el ánimo de generar un mejor entorno, con una gran importancia, sin duda, por atenderse.</t>
+  </si>
+  <si>
+    <t>Compañeras y compañeros diputados, el descontento de los automovilistas y transportistas sobre el alto y excesivo costo de las cuotas de peaje en todas las autopistas nacionales ha provocado las quejas de este sector, por lo que ya basta de abusos que afectan directamente al bolsillo de los ciudadanos a causa de las concesiones leoninas de autopistas y carreteras que encarecen los precios de la
+canasta básica.</t>
+  </si>
+  <si>
+    <t>Tiene ahora la palabra la diputada Araceli Damián González, del Grupo Parlamentario de Morena.</t>
+  </si>
+  <si>
+    <t>Se informa a la Presidencia que existen registrados previamente 295 diputadas y diputados, por lo tanto, hay quórum legal.</t>
+  </si>
+  <si>
+    <t>La Ciudad de México es el gran espacio de la convivencia política y social de nuestro país.</t>
+  </si>
+  <si>
+    <t>Se designa en comisión para que lo acompañen en el acto de rendir protesta a los siguientes diputados: diputado Álvaro Ibarra Hinojosa, diputado José Luis Orozco Sánchez Aldana, diputado Erick Arturo Figueroa Ovando y diputado Ricardo Guillén
+Rivera.</t>
+  </si>
+  <si>
+    <t>Nada más para sumarme en su totalidad al punto de acuerdo, pero agregar que pedir justicia por un solo compañero sería invisibilizar la realidad que se vive en el estado de Chihuahua.</t>
+  </si>
+  <si>
+    <t>Valeria ha sido hoy víctima del estado de violencia en el que vivimos los mexicanos y las mexicanas.</t>
+  </si>
+  <si>
+    <t>... la democracia mexicana evoluciona a otra dimensión aprovechando la tecnología.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra por cinco minutos, el diputado Álvaro Ibarra Hinojosa, para fundamentar el dictamen, de conformidad con el artículo 104, numeral 1, fracción II, del Reglamento de la Cámara de
+Diputados.</t>
+  </si>
+  <si>
+    <t>Oficio de la Mesa Directiva, por el que comunica que se recibieron dictámenes de proposiciones con puntos de acuerdo en sentido negativo, que se encuentran publicados en la Gaceta Parlamentaria.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, hasta por cinco minutos, el diputado Jacobo David Cheja Alfaro, del Grupo Parlamentario de Movimiento Ciudadano, para presentar iniciativa que expide la Ley General para Prevenir, Atender y Eliminar el Acoso Sexual.</t>
+  </si>
+  <si>
+    <t>Señor presidente de la Mesa Directiva, para informar que el día de mañana estarán aquí presentes más de 300 delegados de exbraceros de todos los estados del país y de la Unión Americana, para invitarlos a ustedes, a los diputados que quieran asistir a las 11 de la mañana en el edificio E, para un foro de braceros, para el rescate de los fondos de esos migrantes binacionales.</t>
+  </si>
+  <si>
+    <t>...a los jornaleros agrícolas en los sujetos beneficiarios al régimen voluntario de dicho Seguro.</t>
+  </si>
+  <si>
+    <t>En relación a las siete reservas presentadas por el grupo del Partido Acción Nacional, me referiré a cada una de ellas de manera específica, cumpliendo con nuestra obligación de proceso parlamentario y de vigilar la técnica legislativa en este recinto.</t>
+  </si>
+  <si>
+    <t>Señora presidenta, solo para decirle al secretario que hoy tuvo la oportunidad de haber dicho la verdad a los mexicanos.</t>
+  </si>
+  <si>
+    <t>Graciela Sánchez Ortiz, por supuesto a favor, porque es un tema de justicia social y ejemplo para el pueblo de México, gracias.</t>
+  </si>
+  <si>
+    <t>Se concede licencia, por tiempo indefinido, al diputado Pablo Elizondo García, para separarse de sus funciones como diputado federal electo por el 7 distrito electoral del estado de Nuevo León a partir de esta fecha.</t>
+  </si>
+  <si>
+    <t>Por instrucciones de la Presidencia en votación económica se consulta a la asamblea si se dispensa la lectura al orden del día.</t>
+  </si>
+  <si>
+    <t>Tenemos instrumentos internacionales que han marcado a México como un promotor de inclusión y defensa de derechos diversos.</t>
+  </si>
+  <si>
+    <t>Compañeros diputados, presento iniciativa con proyecto de decreto que reforma la Ley de Educación, en sus fines establecidos.</t>
+  </si>
+  <si>
+    <t>Compañeros, compañeras, la primera ley aprobada por esta legislatura fue la Ley de Remuneraciones de los Servidores Públicos, derivada de una minuta anacrónica y con evidentes errores.</t>
+  </si>
+  <si>
+    <t>Pido a la Secretaría, haga del conocimiento de esta Presidencia el resultado del cómputo de asistencia de diputadas y diputados.</t>
+  </si>
+  <si>
+    <t>Tiene ahora la palabra la diputada Maricela Emilse Etcheverry Aranda, del Grupo Parlamentario del PRI.</t>
+  </si>
+  <si>
+    <t>Tiene ahora la palabra por cinco minutos, el diputado Ángel Antonio Hernández de la Piedra, para presentar iniciativa con proyecto de decreto que reforma y adiciona diversas disposiciones de la Ley Federal sobre Monumentos y Zonas Arqueológicos, Artísticos e Históricos, suscrita por los diputados Laura Beatriz Esquivel Valdés, y Mario Ariel Juárez Rodríguez, todos ellos del Grupo Parlamentario de
+Morena.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, hasta por cinco minutos, el diputado Ernesto Vargas Contreras, del Grupo Parlamentario del PES, para presentar iniciativa con proyecto de decreto que reforma el artículo 14 de la Ley de Asistencia Social.</t>
+  </si>
+  <si>
+    <t>El
+diputado Francisco Javier Huacus Esquivel, del Partido del Trabajo.</t>
+  </si>
+  <si>
+    <t>Para los efectos del artículo 100 del Reglamento de la Cámara de Diputados, consulte la Secretaría a la asamblea en votación económica si se considera de urgente resolución.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra, hasta por cinco minutos, el diputado Evaristo Lenin Pérez Rivera, para presentar iniciativa con proyecto de decreto que expide la Ley Federal que Prohíbe la Fractura Hidráulica, suscrita también por el diputado Raúl Gracia Guzmán, del Grupo Parlamentario del PAN.</t>
+  </si>
+  <si>
+    <t>Le deseamos también suerte en su próximo nuevo encargo al frente de la Junta de Coordinación Política, ya que estamos en los cebollazos.</t>
+  </si>
+  <si>
+    <t>Las diputadas y los diputados que se encuentren por la negativa favor de manifestarlo (votación).</t>
+  </si>
+  <si>
+    <t>Por instrucciones de la Presidencia, en votación económica se consulta a la asamblea si se admiten a discusión las propuetas planteadas.</t>
+  </si>
+  <si>
+    <t>Que sea para beneficio de toda la ciudadanía, los automovilistas y toda la gente que transita por ellas.</t>
+  </si>
+  <si>
+    <t>Tiene ahora la palabra por cinco minutos, el diputado Elías Octavio Íñiguez Mejía, del Grupo Parlamentario del PAN, para presentar iniciativa con proyecto de decreto que reforma y adiciona diversas disposiciones de la Ley General de Salud.</t>
+  </si>
+  <si>
+    <t>Túrnese a las comisiones unidas de Trabajo y Previsión Social y de Seguridad Social para dictamen.</t>
+  </si>
+  <si>
+    <t>En este momento estamos desarrollando el punto de glosa del informe, y no procede su solicitud.</t>
+  </si>
+  <si>
+    <t>Se ha recibido acuerdo de la Junta de Coordinación Política por el que se modifica el calendario y el formato de las comparecencias de los funcionarios de la administración pública federal, con motivo del análisis del VI Informe de Gobierno del presidente de la República Mexicana.</t>
+  </si>
+  <si>
+    <t>Se informa a la asamblea que se votarán en conjunto y en forma económica aquellos en los que no se han registrado oradores, que son los dictámenes 2 y 6.</t>
+  </si>
+  <si>
+    <t>Los invito, compañeros diputados del PRI, para que hablemos del mismo tema, porque creo que en su mapa ni siquiera tienen a Iztapalapa.</t>
+  </si>
+  <si>
+    <t>En consecuencia, se invita a la diputada Lizeth Sánchez García, pase a la Secretaría para rendir protesta de ley.</t>
+  </si>
+  <si>
+    <t>Se recibieron de la Secretaría de Gobernación cuatro contestaciones a puntos de acuerdo, aprobados por la Cámara de Diputados, que se encuentran publicadas en la Gaceta Parlamentaria con su trámite.</t>
+  </si>
+  <si>
+    <t>Oficios del Congreso del Estado de Nuevo León con los que remite las siguientes iniciativas:</t>
+  </si>
+  <si>
+    <t>A ver, yo también quisiera sumarme a la moción que hace la diputada Juárez, que además fue muy puntual en fundamentarlo en el artículo 116 del Reglamento.</t>
+  </si>
+  <si>
+    <t>Le damos la más cordial bienvenida a 90 alumnos, maestros y padres de familia de la escuela secundaria oficial Francisco Villa número 881 del municipio de Chicoloapan de Juárez, estado de México.</t>
+  </si>
+  <si>
+    <t>Sin embargo, con este conjunto de leyes que hoy se someten a consideración se da un paso hacia adelante en el cumplimiento de las obligaciones, para respetar, promover y garantizar los derechos humanos.</t>
+  </si>
+  <si>
+    <t>En el uso de la palabra el diputado Samuel Herrera Chávez, de Morena, desde su lugar.</t>
+  </si>
+  <si>
+    <t>Para los efectos del artículo 100 del Reglamento de la Cámara de Diputados, se pregunta la asamblea si se considera de urgente resolución.</t>
+  </si>
+  <si>
+    <t>Tiene el uso de la tribuna la diputada Ernestina Godoy Ramos, para presentar reserva al artículo 24.</t>
+  </si>
+  <si>
+    <t>Dunyaska García Rojas: Acuerdo de la Junta de Coordinación Política por el que se designa al diputado que representará a esta soberanía ante el Instituto Nacional de Pueblos Indígenas.</t>
+  </si>
+  <si>
+    <t>En virtud de que se ha cumplido con la declaratoria de publicidad, como un requisito, consulte la Secretaría a la asamblea, en votación económica, si se autoriza que se someta a discusión y votación de inmediato.</t>
+  </si>
+  <si>
+    <t>Como presidente de la Segunda Comisión de Trabajo de esta Comisión Permanente, deseo hacer de su conocimiento los asuntos analizados, discutidos y dictaminados al interior de la misma durante su segunda reunión de trabajo celebrada el día de ayer, martes 16 de enero del año en curso.</t>
+  </si>
+  <si>
+    <t>Se remite a la Comisión de Economía de la Cámara de Diputados, y a la Comisión de Comercio y Fomento Industrial de la Cámara de Senadores.</t>
+  </si>
+  <si>
+    <t>Tiene la palabra hasta por cinco minutos, el diputado Mario Uriel Juárez Rodríguez.</t>
+  </si>
+  <si>
+    <t>Consulte la Secretaria a la asamblea, en votación económica, si es de modificarse el orden del día.</t>
+  </si>
+  <si>
+    <t>Honorable asamblea, México necesita gobiernos locales capaces, con autoridades técnicamente aptas, honestas y capacitadas para ejercer sus funciones con eficiencia y eficacia.</t>
+  </si>
+  <si>
+    <t>Señor presidente, desde luego no íbamos a oponernos a la intervención del senador Álvarez Icaza...</t>
+  </si>
+  <si>
+    <t>Mexicanas y mexicanos, compañeras y compañeros legisladores, distinguidos invitados que nos acompañan.</t>
+  </si>
+  <si>
+    <t>No, se inscribe el asunto en el orden del día, a través de la Junta de Coordinación.</t>
   </si>
 </sst>
 </file>
@@ -447,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>460</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -476,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>127</v>
+        <v>7052</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -484,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>359</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -492,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>465</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -500,7 +1599,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>340</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -508,7 +1607,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>57</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -516,7 +1615,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -524,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -532,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>452</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -540,7 +1639,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>52</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -548,7 +1647,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>372</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -556,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>341</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -564,7 +1663,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>474</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -572,7 +1671,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>112</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -580,7 +1679,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>490</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -588,7 +1687,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>169</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -596,7 +1695,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>124</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -604,7 +1703,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>65</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -612,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>100</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -620,7 +1719,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>410</v>
+        <v>7148</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -628,7 +1727,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>315</v>
+        <v>7177</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -636,7 +1735,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>84</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -644,7 +1743,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>271</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -652,7 +1751,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>438</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -660,7 +1759,2903 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6734</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5881</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4983</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>7269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5977</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="n">
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="n">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6972</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6708</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7554</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6702</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6583</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4977</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6279</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6783</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6686</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="n">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="n">
+        <v>7566</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6357</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6482</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>147</v>
+      </c>
+      <c r="B147" t="n">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="n">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="n">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6268</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="n">
+        <v>7561</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7605</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" t="n">
+        <v>7463</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" t="n">
+        <v>7729</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" t="n">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" t="n">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5707</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" t="n">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5627</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" t="n">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6365</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" t="n">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" t="n">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" t="n">
+        <v>7320</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" t="n">
+        <v>5972</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" t="n">
+        <v>5993</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" t="n">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" t="n">
+        <v>7718</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>98</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5562</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>6629</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>7368</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>7694</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4974</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>7734</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>6672</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>6861</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>7622</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>7490</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>7029</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>6738</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>4757</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>6353</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>6996</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>7234</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>7026</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>7475</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>6087</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>6263</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>7611</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>5597</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>7049</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>7608</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>6484</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>6156</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>5762</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>6779</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>6486</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>63</v>
+      </c>
+      <c r="B380" t="n">
+        <v>6197</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>378</v>
+      </c>
+      <c r="B381" t="n">
+        <v>7282</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>379</v>
+      </c>
+      <c r="B382" t="n">
+        <v>7196</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>380</v>
+      </c>
+      <c r="B383" t="n">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>381</v>
+      </c>
+      <c r="B384" t="n">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>382</v>
+      </c>
+      <c r="B385" t="n">
+        <v>6610</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>383</v>
+      </c>
+      <c r="B386" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>384</v>
+      </c>
+      <c r="B387" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>385</v>
+      </c>
+      <c r="B388" t="n">
+        <v>1522</v>
       </c>
     </row>
   </sheetData>
